--- a/resultados/Venda de Drone/Com SPAD 4 Drones/vel20/field_36ha_100ha_18%_12m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 4 Drones/vel20/field_36ha_100ha_18%_12m_0_TSP/Planilha_Unificada.xlsx
@@ -1777,28 +1777,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>234.959442951203</v>
+        <v>283.6565045513469</v>
       </c>
       <c r="AB2" t="n">
-        <v>321.481875524736</v>
+        <v>388.111343568938</v>
       </c>
       <c r="AC2" t="n">
-        <v>290.8000965273967</v>
+        <v>351.0705416564096</v>
       </c>
       <c r="AD2" t="n">
-        <v>234959.4429512029</v>
+        <v>283656.5045513469</v>
       </c>
       <c r="AE2" t="n">
-        <v>321481.875524736</v>
+        <v>388111.343568938</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.286230723339328e-06</v>
+        <v>4.230125406369816e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.646412037037037</v>
       </c>
       <c r="AH2" t="n">
-        <v>290800.0965273967</v>
+        <v>351070.5416564096</v>
       </c>
     </row>
     <row r="3">
@@ -1883,28 +1883,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>140.0158243107034</v>
+        <v>176.5172852971658</v>
       </c>
       <c r="AB3" t="n">
-        <v>191.5758278840329</v>
+        <v>241.518737136493</v>
       </c>
       <c r="AC3" t="n">
-        <v>173.2920997491981</v>
+        <v>218.4685278379326</v>
       </c>
       <c r="AD3" t="n">
-        <v>140015.8243107034</v>
+        <v>176517.2852971658</v>
       </c>
       <c r="AE3" t="n">
-        <v>191575.8278840329</v>
+        <v>241518.737136493</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.162710199168834e-06</v>
+        <v>5.85184191162815e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.80613425925926</v>
       </c>
       <c r="AH3" t="n">
-        <v>173292.0997491981</v>
+        <v>218468.5278379326</v>
       </c>
     </row>
     <row r="4">
@@ -1989,28 +1989,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>133.3856693925328</v>
+        <v>169.8871303789953</v>
       </c>
       <c r="AB4" t="n">
-        <v>182.5041574232053</v>
+        <v>232.4470666756653</v>
       </c>
       <c r="AC4" t="n">
-        <v>165.0862167849795</v>
+        <v>210.262644873714</v>
       </c>
       <c r="AD4" t="n">
-        <v>133385.6693925328</v>
+        <v>169887.1303789953</v>
       </c>
       <c r="AE4" t="n">
-        <v>182504.1574232053</v>
+        <v>232447.0666756653</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.279773699176262e-06</v>
+        <v>6.068440035555338e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.632523148148149</v>
       </c>
       <c r="AH4" t="n">
-        <v>165086.2167849794</v>
+        <v>210262.644873714</v>
       </c>
     </row>
   </sheetData>
@@ -2286,28 +2286,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>175.8286908155648</v>
+        <v>211.1198272137161</v>
       </c>
       <c r="AB2" t="n">
-        <v>240.5765717881225</v>
+        <v>288.8634615431038</v>
       </c>
       <c r="AC2" t="n">
-        <v>217.6162814280729</v>
+        <v>261.2947381959296</v>
       </c>
       <c r="AD2" t="n">
-        <v>175828.6908155648</v>
+        <v>211119.8272137161</v>
       </c>
       <c r="AE2" t="n">
-        <v>240576.5717881226</v>
+        <v>288863.4615431038</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.724246310545538e-06</v>
+        <v>5.19283390736735e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.769675925925926</v>
       </c>
       <c r="AH2" t="n">
-        <v>217616.281428073</v>
+        <v>261294.7381959296</v>
       </c>
     </row>
     <row r="3">
@@ -2392,28 +2392,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>125.8095442770065</v>
+        <v>161.0153398205861</v>
       </c>
       <c r="AB3" t="n">
-        <v>172.1381688050964</v>
+        <v>220.30829143788</v>
       </c>
       <c r="AC3" t="n">
-        <v>155.7095435718232</v>
+        <v>199.282377307741</v>
       </c>
       <c r="AD3" t="n">
-        <v>125809.5442770065</v>
+        <v>161015.3398205861</v>
       </c>
       <c r="AE3" t="n">
-        <v>172138.1688050964</v>
+        <v>220308.29143788</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.358543733428476e-06</v>
+        <v>6.401902688024947e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.681712962962963</v>
       </c>
       <c r="AH3" t="n">
-        <v>155709.5435718232</v>
+        <v>199282.377307741</v>
       </c>
     </row>
   </sheetData>
@@ -2689,28 +2689,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>122.0682276446417</v>
+        <v>142.9952021355742</v>
       </c>
       <c r="AB2" t="n">
-        <v>167.0191343334565</v>
+        <v>195.6523440648921</v>
       </c>
       <c r="AC2" t="n">
-        <v>151.079062565545</v>
+        <v>176.9795589471837</v>
       </c>
       <c r="AD2" t="n">
-        <v>122068.2276446417</v>
+        <v>142995.2021355742</v>
       </c>
       <c r="AE2" t="n">
-        <v>167019.1343334565</v>
+        <v>195652.3440648921</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.377476275859391e-06</v>
+        <v>7.193140572128686e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.19386574074074</v>
       </c>
       <c r="AH2" t="n">
-        <v>151079.062565545</v>
+        <v>176979.5589471837</v>
       </c>
     </row>
   </sheetData>
@@ -2986,28 +2986,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>115.9377128994881</v>
+        <v>148.7677601835171</v>
       </c>
       <c r="AB2" t="n">
-        <v>158.6310935999192</v>
+        <v>203.5506126533712</v>
       </c>
       <c r="AC2" t="n">
-        <v>143.4915646669247</v>
+        <v>184.1240278668704</v>
       </c>
       <c r="AD2" t="n">
-        <v>115937.7128994881</v>
+        <v>148767.7601835171</v>
       </c>
       <c r="AE2" t="n">
-        <v>158631.0935999192</v>
+        <v>203550.6126533712</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.42054231675681e-06</v>
+        <v>6.944883492797308e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.907407407407407</v>
       </c>
       <c r="AH2" t="n">
-        <v>143491.5646669247</v>
+        <v>184124.0278668705</v>
       </c>
     </row>
     <row r="3">
@@ -3092,28 +3092,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>115.9833506299537</v>
+        <v>148.8133979139827</v>
       </c>
       <c r="AB3" t="n">
-        <v>158.6935371561367</v>
+        <v>203.6130562095887</v>
       </c>
       <c r="AC3" t="n">
-        <v>143.548048697777</v>
+        <v>184.1805118977227</v>
       </c>
       <c r="AD3" t="n">
-        <v>115983.3506299537</v>
+        <v>148813.3979139827</v>
       </c>
       <c r="AE3" t="n">
-        <v>158693.5371561367</v>
+        <v>203613.0562095887</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.430749774584291e-06</v>
+        <v>6.965608161228458e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.890046296296296</v>
       </c>
       <c r="AH3" t="n">
-        <v>143548.048697777</v>
+        <v>184180.5118977227</v>
       </c>
     </row>
   </sheetData>
@@ -3389,28 +3389,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>120.6411149465793</v>
+        <v>150.7805798375593</v>
       </c>
       <c r="AB2" t="n">
-        <v>165.0664957801998</v>
+        <v>206.3046413033664</v>
       </c>
       <c r="AC2" t="n">
-        <v>149.3127810952651</v>
+        <v>186.6152158878145</v>
       </c>
       <c r="AD2" t="n">
-        <v>120641.1149465793</v>
+        <v>150780.5798375593</v>
       </c>
       <c r="AE2" t="n">
-        <v>165066.4957801998</v>
+        <v>206304.6413033664</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.241585840475715e-06</v>
+        <v>7.218378507093476e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.619212962962963</v>
       </c>
       <c r="AH2" t="n">
-        <v>149312.7810952651</v>
+        <v>186615.2158878145</v>
       </c>
     </row>
   </sheetData>
@@ -3686,28 +3686,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>186.5011469546574</v>
+        <v>233.8393865558809</v>
       </c>
       <c r="AB2" t="n">
-        <v>255.1790971131566</v>
+        <v>319.9493649512563</v>
       </c>
       <c r="AC2" t="n">
-        <v>230.8251622308634</v>
+        <v>289.4138466121574</v>
       </c>
       <c r="AD2" t="n">
-        <v>186501.1469546574</v>
+        <v>233839.3865558809</v>
       </c>
       <c r="AE2" t="n">
-        <v>255179.0971131566</v>
+        <v>319949.3649512563</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.609913129017673e-06</v>
+        <v>4.934728922608341e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.969328703703703</v>
       </c>
       <c r="AH2" t="n">
-        <v>230825.1622308634</v>
+        <v>289413.8466121574</v>
       </c>
     </row>
     <row r="3">
@@ -3792,28 +3792,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>127.8815370448014</v>
+        <v>163.4278871730048</v>
       </c>
       <c r="AB3" t="n">
-        <v>174.9731607198614</v>
+        <v>223.609245159535</v>
       </c>
       <c r="AC3" t="n">
-        <v>158.2739678371801</v>
+        <v>202.2682926391199</v>
       </c>
       <c r="AD3" t="n">
-        <v>127881.5370448014</v>
+        <v>163427.8871730048</v>
       </c>
       <c r="AE3" t="n">
-        <v>174973.1607198614</v>
+        <v>223609.245159535</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.338550220551199e-06</v>
+        <v>6.312409462890938e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.66724537037037</v>
       </c>
       <c r="AH3" t="n">
-        <v>158273.9678371801</v>
+        <v>202268.2926391199</v>
       </c>
     </row>
     <row r="4">
@@ -3898,28 +3898,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>128.1290194118444</v>
+        <v>163.6753695400478</v>
       </c>
       <c r="AB4" t="n">
-        <v>175.3117770126009</v>
+        <v>223.9478614522745</v>
       </c>
       <c r="AC4" t="n">
-        <v>158.5802670661916</v>
+        <v>202.5745918681314</v>
       </c>
       <c r="AD4" t="n">
-        <v>128129.0194118443</v>
+        <v>163675.3695400478</v>
       </c>
       <c r="AE4" t="n">
-        <v>175311.7770126009</v>
+        <v>223947.8614522745</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.338657903561845e-06</v>
+        <v>6.312613066015194e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.66724537037037</v>
       </c>
       <c r="AH4" t="n">
-        <v>158580.2670661916</v>
+        <v>202574.5918681314</v>
       </c>
     </row>
   </sheetData>
@@ -4195,28 +4195,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>130.625273936616</v>
+        <v>159.9387895449914</v>
       </c>
       <c r="AB2" t="n">
-        <v>178.7272625803691</v>
+        <v>218.8353078567658</v>
       </c>
       <c r="AC2" t="n">
-        <v>161.6697834850372</v>
+        <v>197.9499732122624</v>
       </c>
       <c r="AD2" t="n">
-        <v>130625.273936616</v>
+        <v>159938.7895449914</v>
       </c>
       <c r="AE2" t="n">
-        <v>178727.2625803691</v>
+        <v>218835.3078567658</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.105130546391629e-06</v>
+        <v>7.118719039428875e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.004050925925926</v>
       </c>
       <c r="AH2" t="n">
-        <v>161669.7834850372</v>
+        <v>197949.9732122624</v>
       </c>
     </row>
   </sheetData>
@@ -4492,28 +4492,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>146.2187567947323</v>
+        <v>169.0094276365971</v>
       </c>
       <c r="AB2" t="n">
-        <v>200.0629537627448</v>
+        <v>231.2461550620046</v>
       </c>
       <c r="AC2" t="n">
-        <v>180.9692262458044</v>
+        <v>209.1763465789707</v>
       </c>
       <c r="AD2" t="n">
-        <v>146218.7567947324</v>
+        <v>169009.4276365971</v>
       </c>
       <c r="AE2" t="n">
-        <v>200062.9537627448</v>
+        <v>231246.1550620046</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.121908265282208e-06</v>
+        <v>6.118897055386382e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.188078703703703</v>
       </c>
       <c r="AH2" t="n">
-        <v>180969.2262458043</v>
+        <v>209176.3465789707</v>
       </c>
     </row>
     <row r="3">
@@ -4598,28 +4598,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>120.6082984436496</v>
+        <v>154.7088295890485</v>
       </c>
       <c r="AB3" t="n">
-        <v>165.0215947931295</v>
+        <v>211.6794459154991</v>
       </c>
       <c r="AC3" t="n">
-        <v>149.2721653953818</v>
+        <v>191.4770566913526</v>
       </c>
       <c r="AD3" t="n">
-        <v>120608.2984436496</v>
+        <v>154708.8295890485</v>
       </c>
       <c r="AE3" t="n">
-        <v>165021.5947931295</v>
+        <v>211679.4459154991</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.408954553462068e-06</v>
+        <v>6.681503813258097e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.751157407407408</v>
       </c>
       <c r="AH3" t="n">
-        <v>149272.1653953818</v>
+        <v>191477.0566913526</v>
       </c>
     </row>
   </sheetData>
@@ -4895,28 +4895,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>165.0658578562042</v>
+        <v>200.0034896542174</v>
       </c>
       <c r="AB2" t="n">
-        <v>225.8503889104537</v>
+        <v>273.6535980760042</v>
       </c>
       <c r="AC2" t="n">
-        <v>204.2955447759167</v>
+        <v>247.5364827509477</v>
       </c>
       <c r="AD2" t="n">
-        <v>165065.8578562042</v>
+        <v>200003.4896542174</v>
       </c>
       <c r="AE2" t="n">
-        <v>225850.3889104537</v>
+        <v>273653.5980760042</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.856522750945969e-06</v>
+        <v>5.492245094869846e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.555555555555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>204295.5447759167</v>
+        <v>247536.4827509477</v>
       </c>
     </row>
     <row r="3">
@@ -5001,28 +5001,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>124.1674639888721</v>
+        <v>159.0197549323138</v>
       </c>
       <c r="AB3" t="n">
-        <v>169.8914021114025</v>
+        <v>217.5778441547553</v>
       </c>
       <c r="AC3" t="n">
-        <v>153.6772051380179</v>
+        <v>196.8125200811101</v>
       </c>
       <c r="AD3" t="n">
-        <v>124167.4639888721</v>
+        <v>159019.7549323138</v>
       </c>
       <c r="AE3" t="n">
-        <v>169891.4021114025</v>
+        <v>217577.8441547553</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.378488210323363e-06</v>
+        <v>6.495829691914492e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.696180555555556</v>
       </c>
       <c r="AH3" t="n">
-        <v>153677.2051380179</v>
+        <v>196812.5200811101</v>
       </c>
     </row>
   </sheetData>
@@ -5298,28 +5298,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>221.8371158568983</v>
+        <v>258.0304308289859</v>
       </c>
       <c r="AB2" t="n">
-        <v>303.5273286781037</v>
+        <v>353.0486189592537</v>
       </c>
       <c r="AC2" t="n">
-        <v>274.5591064324366</v>
+        <v>319.3541542727368</v>
       </c>
       <c r="AD2" t="n">
-        <v>221837.1158568983</v>
+        <v>258030.4308289859</v>
       </c>
       <c r="AE2" t="n">
-        <v>303527.3286781037</v>
+        <v>353048.6189592537</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.391113874475065e-06</v>
+        <v>4.454463790709727e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.40625</v>
       </c>
       <c r="AH2" t="n">
-        <v>274559.1064324366</v>
+        <v>319354.1542727367</v>
       </c>
     </row>
     <row r="3">
@@ -5404,28 +5404,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>134.8278809641423</v>
+        <v>171.0211064276789</v>
       </c>
       <c r="AB3" t="n">
-        <v>184.4774549213644</v>
+        <v>233.998622732966</v>
       </c>
       <c r="AC3" t="n">
-        <v>166.8711855394554</v>
+        <v>211.666122598529</v>
       </c>
       <c r="AD3" t="n">
-        <v>134827.8809641423</v>
+        <v>171021.1064276789</v>
       </c>
       <c r="AE3" t="n">
-        <v>184477.4549213644</v>
+        <v>233998.622732966</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.237913766790491e-06</v>
+        <v>6.031987763349489e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.730902777777779</v>
       </c>
       <c r="AH3" t="n">
-        <v>166871.1855394554</v>
+        <v>211666.122598529</v>
       </c>
     </row>
     <row r="4">
@@ -5510,28 +5510,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>131.5686983553382</v>
+        <v>167.7619238188747</v>
       </c>
       <c r="AB4" t="n">
-        <v>180.018097491012</v>
+        <v>229.5392653026136</v>
       </c>
       <c r="AC4" t="n">
-        <v>162.8374229235069</v>
+        <v>207.6323599825805</v>
       </c>
       <c r="AD4" t="n">
-        <v>131568.6983553382</v>
+        <v>167761.9238188747</v>
       </c>
       <c r="AE4" t="n">
-        <v>180018.097491012</v>
+        <v>229539.2653026136</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.300698504992923e-06</v>
+        <v>6.148950968622731e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.641203703703703</v>
       </c>
       <c r="AH4" t="n">
-        <v>162837.4229235069</v>
+        <v>207632.3599825805</v>
       </c>
     </row>
   </sheetData>
@@ -5807,28 +5807,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>119.8297280882894</v>
+        <v>153.1058377010444</v>
       </c>
       <c r="AB2" t="n">
-        <v>163.9563204848263</v>
+        <v>209.4861616953221</v>
       </c>
       <c r="AC2" t="n">
-        <v>148.3085593719408</v>
+        <v>189.4930964388549</v>
       </c>
       <c r="AD2" t="n">
-        <v>119829.7280882894</v>
+        <v>153105.8377010444</v>
       </c>
       <c r="AE2" t="n">
-        <v>163956.3204848263</v>
+        <v>209486.1616953221</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.366164098897214e-06</v>
+        <v>6.747467032615452e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.921875000000001</v>
       </c>
       <c r="AH2" t="n">
-        <v>148308.5593719408</v>
+        <v>189493.0964388549</v>
       </c>
     </row>
     <row r="3">
@@ -5913,28 +5913,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>117.6564254798388</v>
+        <v>150.9325350925939</v>
       </c>
       <c r="AB3" t="n">
-        <v>160.9827119766014</v>
+        <v>206.5125531870972</v>
       </c>
       <c r="AC3" t="n">
-        <v>145.6187478862542</v>
+        <v>186.8032849531683</v>
       </c>
       <c r="AD3" t="n">
-        <v>117656.4254798388</v>
+        <v>150932.5350925939</v>
       </c>
       <c r="AE3" t="n">
-        <v>160982.7119766014</v>
+        <v>206512.5531870972</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.426298716833821e-06</v>
+        <v>6.868006715211175e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.837962962962963</v>
       </c>
       <c r="AH3" t="n">
-        <v>145618.7478862542</v>
+        <v>186803.2849531683</v>
       </c>
     </row>
   </sheetData>
@@ -6210,28 +6210,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>123.3419574564624</v>
+        <v>144.6325449787573</v>
       </c>
       <c r="AB2" t="n">
-        <v>168.7619076549822</v>
+        <v>197.8926287774022</v>
       </c>
       <c r="AC2" t="n">
-        <v>152.6555080472625</v>
+        <v>179.006034030992</v>
       </c>
       <c r="AD2" t="n">
-        <v>123341.9574564624</v>
+        <v>144632.5449787573</v>
       </c>
       <c r="AE2" t="n">
-        <v>168761.9076549822</v>
+        <v>197892.6287774022</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.411512123913628e-06</v>
+        <v>7.137096712089143e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.060763888888888</v>
       </c>
       <c r="AH2" t="n">
-        <v>152655.5080472626</v>
+        <v>179006.034030992</v>
       </c>
     </row>
   </sheetData>
@@ -10192,28 +10192,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>121.0414432615027</v>
+        <v>151.667006669592</v>
       </c>
       <c r="AB2" t="n">
-        <v>165.6142426419165</v>
+        <v>207.5174896013448</v>
       </c>
       <c r="AC2" t="n">
-        <v>149.8082517652673</v>
+        <v>187.7123116464776</v>
       </c>
       <c r="AD2" t="n">
-        <v>121041.4432615027</v>
+        <v>151667.0066695921</v>
       </c>
       <c r="AE2" t="n">
-        <v>165614.2426419166</v>
+        <v>207517.4896013448</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.32996640552527e-06</v>
+        <v>7.238866684080496e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.361689814814816</v>
       </c>
       <c r="AH2" t="n">
-        <v>149808.2517652673</v>
+        <v>187712.3116464776</v>
       </c>
     </row>
   </sheetData>
@@ -10489,28 +10489,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>132.7480775250939</v>
+        <v>170.7122460346841</v>
       </c>
       <c r="AB2" t="n">
-        <v>181.6317761016078</v>
+        <v>233.5760263173119</v>
       </c>
       <c r="AC2" t="n">
-        <v>164.2970943123201</v>
+        <v>211.283858191667</v>
       </c>
       <c r="AD2" t="n">
-        <v>132748.0775250939</v>
+        <v>170712.2460346841</v>
       </c>
       <c r="AE2" t="n">
-        <v>181631.7761016078</v>
+        <v>233576.0263173119</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.859375038222663e-06</v>
+        <v>6.801100627237402e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.701388888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>164297.0943123201</v>
+        <v>211283.858191667</v>
       </c>
     </row>
   </sheetData>
@@ -10786,28 +10786,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>155.9411502611856</v>
+        <v>190.3403269640536</v>
       </c>
       <c r="AB2" t="n">
-        <v>213.3655614252674</v>
+        <v>260.4320325746783</v>
       </c>
       <c r="AC2" t="n">
-        <v>193.0022517033471</v>
+        <v>235.5767649044803</v>
       </c>
       <c r="AD2" t="n">
-        <v>155941.1502611856</v>
+        <v>190340.3269640536</v>
       </c>
       <c r="AE2" t="n">
-        <v>213365.5614252674</v>
+        <v>260432.0325746782</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.976659259573654e-06</v>
+        <v>5.776440053038859e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.384837962962963</v>
       </c>
       <c r="AH2" t="n">
-        <v>193002.2517033471</v>
+        <v>235576.7649044803</v>
       </c>
     </row>
     <row r="3">
@@ -10892,28 +10892,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>122.3818236530173</v>
+        <v>156.8662517019059</v>
       </c>
       <c r="AB3" t="n">
-        <v>167.4482102269953</v>
+        <v>214.6313260290554</v>
       </c>
       <c r="AC3" t="n">
-        <v>151.4671880580164</v>
+        <v>194.1472135098618</v>
       </c>
       <c r="AD3" t="n">
-        <v>122381.8236530173</v>
+        <v>156866.2517019059</v>
       </c>
       <c r="AE3" t="n">
-        <v>167448.2102269953</v>
+        <v>214631.3260290554</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.390113391986289e-06</v>
+        <v>6.578780127026652e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.72800925925926</v>
       </c>
       <c r="AH3" t="n">
-        <v>151467.1880580164</v>
+        <v>194147.2135098618</v>
       </c>
     </row>
   </sheetData>
@@ -11189,28 +11189,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>210.1984188958353</v>
+        <v>246.0736596621877</v>
       </c>
       <c r="AB2" t="n">
-        <v>287.6027500329139</v>
+        <v>336.6888371533335</v>
       </c>
       <c r="AC2" t="n">
-        <v>260.154347222852</v>
+        <v>304.5557270812705</v>
       </c>
       <c r="AD2" t="n">
-        <v>210198.4188958353</v>
+        <v>246073.6596621877</v>
       </c>
       <c r="AE2" t="n">
-        <v>287602.7500329139</v>
+        <v>336688.8371533335</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.493739484449715e-06</v>
+        <v>4.679233390381102e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.19212962962963</v>
       </c>
       <c r="AH2" t="n">
-        <v>260154.3472228521</v>
+        <v>304555.7270812705</v>
       </c>
     </row>
     <row r="3">
@@ -11295,28 +11295,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>130.8759376753864</v>
+        <v>166.7510889331877</v>
       </c>
       <c r="AB3" t="n">
-        <v>179.0702317662582</v>
+        <v>228.1561964171294</v>
       </c>
       <c r="AC3" t="n">
-        <v>161.9800201731854</v>
+        <v>206.3812892503772</v>
       </c>
       <c r="AD3" t="n">
-        <v>130875.9376753864</v>
+        <v>166751.0889331877</v>
       </c>
       <c r="AE3" t="n">
-        <v>179070.2317662582</v>
+        <v>228156.1964171294</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.303812484492715e-06</v>
+        <v>6.199248072782395e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.675925925925926</v>
       </c>
       <c r="AH3" t="n">
-        <v>161980.0201731854</v>
+        <v>206381.2892503772</v>
       </c>
     </row>
     <row r="4">
@@ -11401,28 +11401,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>129.5292551451973</v>
+        <v>165.4044064029986</v>
       </c>
       <c r="AB4" t="n">
-        <v>177.2276413170142</v>
+        <v>226.3136059678855</v>
       </c>
       <c r="AC4" t="n">
-        <v>160.3132839703247</v>
+        <v>204.7145530475165</v>
       </c>
       <c r="AD4" t="n">
-        <v>129529.2551451973</v>
+        <v>165404.4064029986</v>
       </c>
       <c r="AE4" t="n">
-        <v>177227.6413170142</v>
+        <v>226313.6059678855</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.332476770274416e-06</v>
+        <v>6.253033515880016e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.635416666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>160313.2839703247</v>
+        <v>204714.5530475166</v>
       </c>
     </row>
   </sheetData>
@@ -11698,28 +11698,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>158.267366605957</v>
+        <v>194.8228871128695</v>
       </c>
       <c r="AB2" t="n">
-        <v>216.5483932536042</v>
+        <v>266.5652691268817</v>
       </c>
       <c r="AC2" t="n">
-        <v>195.881318529121</v>
+        <v>241.1246539681951</v>
       </c>
       <c r="AD2" t="n">
-        <v>158267.366605957</v>
+        <v>194822.8871128695</v>
       </c>
       <c r="AE2" t="n">
-        <v>216548.3932536042</v>
+        <v>266565.2691268817</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.4140345229497e-06</v>
+        <v>6.037317141947827e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.220486111111112</v>
       </c>
       <c r="AH2" t="n">
-        <v>195881.318529121</v>
+        <v>241124.6539681951</v>
       </c>
     </row>
   </sheetData>
@@ -11995,28 +11995,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>114.0984125678812</v>
+        <v>146.4549126363379</v>
       </c>
       <c r="AB2" t="n">
-        <v>156.1144817420121</v>
+        <v>200.3860726036897</v>
       </c>
       <c r="AC2" t="n">
-        <v>141.2151347126485</v>
+        <v>181.2615070780698</v>
       </c>
       <c r="AD2" t="n">
-        <v>114098.4125678812</v>
+        <v>146454.9126363379</v>
       </c>
       <c r="AE2" t="n">
-        <v>156114.4817420121</v>
+        <v>200386.0726036897</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.425571403697559e-06</v>
+        <v>7.054222526240434e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.965277777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>141215.1347126485</v>
+        <v>181261.5070780698</v>
       </c>
     </row>
   </sheetData>
@@ -12292,28 +12292,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>137.3588539781387</v>
+        <v>159.8815581442365</v>
       </c>
       <c r="AB2" t="n">
-        <v>187.9404438577614</v>
+        <v>218.7570013293818</v>
       </c>
       <c r="AC2" t="n">
-        <v>170.0036716720992</v>
+        <v>197.879140149948</v>
       </c>
       <c r="AD2" t="n">
-        <v>137358.8539781386</v>
+        <v>159881.5581442365</v>
       </c>
       <c r="AE2" t="n">
-        <v>187940.4438577614</v>
+        <v>218757.0013293818</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.26464031842303e-06</v>
+        <v>6.467853529545337e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.017361111111112</v>
       </c>
       <c r="AH2" t="n">
-        <v>170003.6716720992</v>
+        <v>197879.140149948</v>
       </c>
     </row>
     <row r="3">
@@ -12398,28 +12398,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>119.03577584975</v>
+        <v>152.7343569814986</v>
       </c>
       <c r="AB3" t="n">
-        <v>162.8700000053565</v>
+        <v>208.977885386267</v>
       </c>
       <c r="AC3" t="n">
-        <v>147.325915794371</v>
+        <v>189.0333293073656</v>
       </c>
       <c r="AD3" t="n">
-        <v>119035.77584975</v>
+        <v>152734.3569814986</v>
       </c>
       <c r="AE3" t="n">
-        <v>162870.0000053565</v>
+        <v>208977.885386267</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.425667758321667e-06</v>
+        <v>6.786878535033581e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.780092592592593</v>
       </c>
       <c r="AH3" t="n">
-        <v>147325.915794371</v>
+        <v>189033.3293073656</v>
       </c>
     </row>
   </sheetData>
